--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -518,10 +518,10 @@
         <v>45294</v>
       </c>
       <c r="H2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -581,29 +581,29 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -626,20 +626,20 @@
         <v>45298</v>
       </c>
       <c r="H5" t="n">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="I5" t="n">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19</v>
+        <v>467</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,33 +649,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="H6" t="n">
-        <v>24</v>
+        <v>490</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>490</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>429</v>
+        <v>166</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -698,48 +698,12 @@
         <v>45299</v>
       </c>
       <c r="H7" t="n">
-        <v>450</v>
+        <v>192</v>
       </c>
       <c r="I7" t="n">
-        <v>450</v>
+        <v>192</v>
       </c>
       <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>152</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>LINE_B</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="H8" t="n">
-        <v>176</v>
-      </c>
-      <c r="I8" t="n">
-        <v>176</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,267 +439,6 @@
           <t>produced_qty</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>simulation_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>production_plan_date</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>available_date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>uncon_planned_qty</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>con_planned_qty</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>changeover_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LINE_A</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H2" t="n">
-        <v>90</v>
-      </c>
-      <c r="I2" t="n">
-        <v>90</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>77</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>LINE_A</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="H3" t="n">
-        <v>80</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>220</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LINE_A</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H4" t="n">
-        <v>230</v>
-      </c>
-      <c r="I4" t="n">
-        <v>230</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>53</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>LINE_B</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H5" t="n">
-        <v>64</v>
-      </c>
-      <c r="I5" t="n">
-        <v>64</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>467</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>LINE_A</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="H6" t="n">
-        <v>490</v>
-      </c>
-      <c r="I6" t="n">
-        <v>490</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>166</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>LINE_B</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="H7" t="n">
-        <v>192</v>
-      </c>
-      <c r="I7" t="n">
-        <v>192</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +443,375 @@
           <t>produced_qty</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>simulation_date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>production_plan_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>available_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>uncon_planned_qty</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>con_planned_qty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>changeover_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>391</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H2" t="n">
+        <v>410</v>
+      </c>
+      <c r="I2" t="n">
+        <v>410</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>606</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H4" t="n">
+        <v>640</v>
+      </c>
+      <c r="I4" t="n">
+        <v>640</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>120</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H5" t="n">
+        <v>128</v>
+      </c>
+      <c r="I5" t="n">
+        <v>128</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>606</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H6" t="n">
+        <v>640</v>
+      </c>
+      <c r="I6" t="n">
+        <v>640</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>267</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H7" t="n">
+        <v>288</v>
+      </c>
+      <c r="I7" t="n">
+        <v>288</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>96</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>222</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H9" t="n">
+        <v>256</v>
+      </c>
+      <c r="I9" t="n">
+        <v>256</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H10" t="n">
+        <v>48</v>
+      </c>
+      <c r="I10" t="n">
+        <v>48</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>391</v>
+        <v>105</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -518,20 +518,20 @@
         <v>45295</v>
       </c>
       <c r="H2" t="n">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="I2" t="n">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>606</v>
+        <v>143</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -581,29 +581,29 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H4" t="n">
-        <v>640</v>
+        <v>150</v>
       </c>
       <c r="I4" t="n">
-        <v>640</v>
+        <v>150</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,33 +613,33 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="H5" t="n">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="I5" t="n">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>606</v>
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,33 +649,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="H6" t="n">
-        <v>640</v>
+        <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>640</v>
+        <v>40</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>267</v>
+        <v>410</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,33 +685,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="H7" t="n">
-        <v>288</v>
+        <v>430</v>
       </c>
       <c r="I7" t="n">
-        <v>288</v>
+        <v>430</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -721,33 +721,33 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>222</v>
+        <v>439</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -757,29 +757,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="H9" t="n">
-        <v>256</v>
+        <v>460</v>
       </c>
       <c r="I9" t="n">
-        <v>256</v>
+        <v>460</v>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -797,19 +797,19 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="H10" t="n">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="I10" t="n">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105</v>
+        <v>420</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -518,16 +518,16 @@
         <v>45295</v>
       </c>
       <c r="H2" t="n">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="I2" t="n">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105</v>
+        <v>684</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -554,16 +554,16 @@
         <v>45296</v>
       </c>
       <c r="H3" t="n">
-        <v>110</v>
+        <v>720</v>
       </c>
       <c r="I3" t="n">
-        <v>110</v>
+        <v>720</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>143</v>
+        <v>1027</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -590,16 +590,16 @@
         <v>45297</v>
       </c>
       <c r="H4" t="n">
-        <v>150</v>
+        <v>1080</v>
       </c>
       <c r="I4" t="n">
-        <v>150</v>
+        <v>1080</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>324</v>
+        <v>999</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -626,16 +626,16 @@
         <v>45298</v>
       </c>
       <c r="H5" t="n">
-        <v>340</v>
+        <v>1050</v>
       </c>
       <c r="I5" t="n">
-        <v>340</v>
+        <v>1050</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -662,16 +662,16 @@
         <v>45298</v>
       </c>
       <c r="H6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>410</v>
+        <v>656</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -698,16 +698,16 @@
         <v>45299</v>
       </c>
       <c r="H7" t="n">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="I7" t="n">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -734,20 +734,20 @@
         <v>45299</v>
       </c>
       <c r="H8" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I8" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>439</v>
+        <v>160</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -770,48 +770,12 @@
         <v>45300</v>
       </c>
       <c r="H9" t="n">
-        <v>460</v>
+        <v>176</v>
       </c>
       <c r="I9" t="n">
-        <v>460</v>
+        <v>176</v>
       </c>
       <c r="J9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>201</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>LINE_B</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="H10" t="n">
-        <v>232</v>
-      </c>
-      <c r="I10" t="n">
-        <v>232</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_production_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>420</v>
+        <v>675</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -518,20 +518,20 @@
         <v>45295</v>
       </c>
       <c r="H2" t="n">
-        <v>440</v>
+        <v>710</v>
       </c>
       <c r="I2" t="n">
-        <v>440</v>
+        <v>710</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>684</v>
+        <v>92</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>45294</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>45296</v>
-      </c>
       <c r="H3" t="n">
-        <v>720</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>720</v>
+        <v>104</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1027</v>
+        <v>621</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -581,29 +581,29 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>45297</v>
-      </c>
       <c r="H4" t="n">
-        <v>1080</v>
+        <v>660</v>
       </c>
       <c r="I4" t="n">
-        <v>1080</v>
+        <v>660</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>999</v>
+        <v>75</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,33 +613,33 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45298</v>
-      </c>
       <c r="H5" t="n">
-        <v>1050</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
-        <v>1050</v>
+        <v>80</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70</v>
+        <v>675</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,33 +649,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="G6" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>45298</v>
-      </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>710</v>
       </c>
       <c r="I6" t="n">
-        <v>80</v>
+        <v>710</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>656</v>
+        <v>92</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,33 +685,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>45299</v>
-      </c>
       <c r="H7" t="n">
-        <v>690</v>
+        <v>104</v>
       </c>
       <c r="I7" t="n">
-        <v>690</v>
+        <v>104</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>113</v>
+        <v>817</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -721,29 +721,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="G8" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>45299</v>
-      </c>
       <c r="H8" t="n">
-        <v>128</v>
+        <v>860</v>
       </c>
       <c r="I8" t="n">
-        <v>128</v>
+        <v>860</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -761,21 +761,165 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="H9" t="n">
+        <v>112</v>
+      </c>
+      <c r="I9" t="n">
+        <v>112</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>798</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="H10" t="n">
+        <v>840</v>
+      </c>
+      <c r="I10" t="n">
+        <v>840</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>99</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H11" t="n">
+        <v>112</v>
+      </c>
+      <c r="I11" t="n">
+        <v>112</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>827</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>45300</v>
       </c>
-      <c r="H9" t="n">
-        <v>176</v>
-      </c>
-      <c r="I9" t="n">
-        <v>176</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>870</v>
+      </c>
+      <c r="I12" t="n">
+        <v>870</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>106</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="H13" t="n">
+        <v>120</v>
+      </c>
+      <c r="I13" t="n">
+        <v>120</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
